--- a/ONCHO/Entomological survey Survey/Nigeria/2024/jigawa/oct 2024/ng_oncho_2410_3_flies_sort_jig.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/jigawa/oct 2024/ng_oncho_2410_3_flies_sort_jig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\jigawa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\jigawa\oct 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29209BD9-021A-4E09-9BE1-B81C1F0BDDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A31D20-BA2F-4F96-8B1D-A671374E330D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="155">
   <si>
     <t>type</t>
   </si>
@@ -387,9 +387,6 @@
     <t>community = ${r_community}</t>
   </si>
   <si>
-    <t>ng_oncho_2408_3_flies_sort_jig</t>
-  </si>
-  <si>
     <t>JIGAWA</t>
   </si>
   <si>
@@ -447,7 +444,64 @@
     <t>JIG_GAR_A_024</t>
   </si>
   <si>
-    <t>(Jigawa) 3. Blackfly Sorting Modules</t>
+    <t>(Jigawa) 3. Blackfly Sorting Modules V2</t>
+  </si>
+  <si>
+    <t>ng_oncho_2408_3_flies_sort_jig_v2</t>
+  </si>
+  <si>
+    <t>AUYO</t>
+  </si>
+  <si>
+    <t>KAZAURE</t>
+  </si>
+  <si>
+    <t>KIRIKASAMA</t>
+  </si>
+  <si>
+    <t>MALLAM MADORI</t>
+  </si>
+  <si>
+    <t>RINGIM</t>
+  </si>
+  <si>
+    <t>TAURA</t>
+  </si>
+  <si>
+    <t>HADIYAU</t>
+  </si>
+  <si>
+    <t>GADA</t>
+  </si>
+  <si>
+    <t>TURABU</t>
+  </si>
+  <si>
+    <t>ARKI</t>
+  </si>
+  <si>
+    <t>GABARIN</t>
+  </si>
+  <si>
+    <t>DAURAWA</t>
+  </si>
+  <si>
+    <t>JIG_KIR_A_025</t>
+  </si>
+  <si>
+    <t>JIG_KAZ_A_026</t>
+  </si>
+  <si>
+    <t>JIG_RIN_A_027</t>
+  </si>
+  <si>
+    <t>JIG_MAM_A_028</t>
+  </si>
+  <si>
+    <t>JIG_AUY_A_029</t>
+  </si>
+  <si>
+    <t>JIG_TAU_A_030</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1080,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1682,8 +1736,8 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD40"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1867,7 +1921,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1878,318 +1932,537 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>103</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>104</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>104</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>104</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>104</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>104</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" t="s">
-        <v>123</v>
+      <c r="B34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="E35" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F36" t="s">
-        <v>128</v>
+        <v>124</v>
+      </c>
+      <c r="E36" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="E37" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F38" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="E38" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="E39" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="B47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F54" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F55" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
@@ -2269,7 +2542,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2293,10 +2566,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
